--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbrazhnyy/GitHub/dynamixel_robot_arm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD91E56-43C3-F84B-B6E1-8CC3AD4C5B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D1F849-E7F7-CB47-BCB3-86283093F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="660" windowWidth="16560" windowHeight="20180" xr2:uid="{E0386F3D-9119-234D-8CF3-4B01EDFA59D6}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="33280" windowHeight="20180" xr2:uid="{E0386F3D-9119-234D-8CF3-4B01EDFA59D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,111 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
-  <si>
-    <t>−1,6699</t>
-  </si>
-  <si>
-    <t>−1,6242</t>
-  </si>
-  <si>
-    <t>−1,5789</t>
-  </si>
-  <si>
-    <t>−1,5354</t>
-  </si>
-  <si>
-    <t>−1,4952</t>
-  </si>
-  <si>
-    <t>−1,4597</t>
-  </si>
-  <si>
-    <t>−0,0204</t>
-  </si>
-  <si>
-    <t>−1,4304</t>
-  </si>
-  <si>
-    <t>−0,0544</t>
-  </si>
-  <si>
-    <t>−1,4084</t>
-  </si>
-  <si>
-    <t>−0,0795</t>
-  </si>
-  <si>
-    <t>−1,3949</t>
-  </si>
-  <si>
-    <t>−0,0950</t>
-  </si>
-  <si>
-    <t>−1,3903</t>
-  </si>
-  <si>
-    <t>−0,1002</t>
-  </si>
-  <si>
-    <t>−0,0370</t>
-  </si>
-  <si>
-    <t>−0,0728</t>
-  </si>
-  <si>
-    <t>−0,1063</t>
-  </si>
-  <si>
-    <t>−0,1363</t>
-  </si>
-  <si>
-    <t>−0,1620</t>
-  </si>
-  <si>
-    <t>−0,1827</t>
-  </si>
-  <si>
-    <t>−0,1978</t>
-  </si>
-  <si>
-    <t>−0,2071</t>
-  </si>
-  <si>
-    <t>−0,2102</t>
-  </si>
-  <si>
-    <t>−1,7146</t>
-  </si>
-  <si>
-    <t>−1,7571</t>
-  </si>
-  <si>
-    <t>−1,7963</t>
-  </si>
-  <si>
-    <t>−1,8311</t>
-  </si>
-  <si>
-    <t>−1,8608</t>
-  </si>
-  <si>
-    <t>−1,8846</t>
-  </si>
-  <si>
-    <t>−1,9019</t>
-  </si>
-  <si>
-    <t>−1,9125</t>
-  </si>
-  <si>
-    <t>−1,9160</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -176,9 +79,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,527 +419,527 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB997D-577A-A442-A8FF-4B28F2797061}">
   <dimension ref="C2:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="1">
+      <c r="C2">
         <v>0.2102</v>
       </c>
       <c r="D2">
         <v>1.4301999999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>-1.6698999999999999</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.2397</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.20710000000000001</v>
       </c>
       <c r="D3">
         <v>1.4437</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
+        <v>-1.6242000000000001</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.18049999999999999</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.1978</v>
       </c>
       <c r="D4">
         <v>1.4556</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="E4">
+        <v>-1.5789</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.12330000000000001</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.1827</v>
       </c>
       <c r="D5">
         <v>1.4656</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
+        <v>-1.5354000000000001</v>
+      </c>
+      <c r="F5" s="1">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.4737</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1">
+        <v>-1.4952000000000001</v>
+      </c>
+      <c r="F6" s="1">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.1363</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.4801</v>
       </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+      <c r="E7" s="1">
+        <v>-1.4597</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.10630000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.4847999999999999</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
+      <c r="E8" s="1">
+        <v>-1.4303999999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.488</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
+      <c r="E9" s="1">
+        <v>-1.4084000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-7.9500000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1.4898</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
+      <c r="E10" s="1">
+        <v>-1.3949</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1.4903999999999999</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
+      <c r="E11" s="1">
+        <v>-1.3903000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.1002</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
         <v>1.4898</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
+      <c r="E12" s="1">
+        <v>-1.3949</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>-7.2800000000000004E-2</v>
+      </c>
+      <c r="D13" s="1">
         <v>1.488</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
+      <c r="E13" s="1">
+        <v>-1.4084000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-7.9500000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="D14" s="1">
         <v>1.4847999999999999</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
+      <c r="E14" s="1">
+        <v>-1.4303999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-5.4399999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>-0.1363</v>
+      </c>
+      <c r="D15" s="1">
         <v>1.4801</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
+      <c r="E15" s="1">
+        <v>-1.4597</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.4737</v>
       </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="1">
+        <v>-1.4952000000000001</v>
+      </c>
+      <c r="F16" s="1">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>-0.1827</v>
+      </c>
+      <c r="D17" s="1">
         <v>1.4656</v>
       </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1">
+        <v>-1.5354000000000001</v>
+      </c>
+      <c r="F17" s="1">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>-0.1978</v>
+      </c>
+      <c r="D18" s="1">
         <v>1.4556</v>
       </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="1">
+        <v>-1.5789</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.12330000000000001</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>-0.20710000000000001</v>
+      </c>
+      <c r="D19" s="1">
         <v>1.4437</v>
       </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="1">
+        <v>-1.6242000000000001</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.18049999999999999</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>-0.2102</v>
+      </c>
+      <c r="D20" s="1">
         <v>1.4301999999999999</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1">
+        <v>-1.6698999999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.2397</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="2">
+        <v>-0.20710000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.4152</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-1.7145999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.2994</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="2">
+        <v>-0.1978</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.3992</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-1.7571000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.3579</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>-0.1827</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.3829</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-1.7963</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.41339999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="2">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.3669</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.8310999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.46429999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="2">
+        <v>-0.1363</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.3521000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.8608</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.50870000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="2">
+        <v>-0.10630000000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.3392999999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.8846000000000001</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.54520000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="2">
+        <v>-7.2800000000000004E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.3294999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.9018999999999999</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="2">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.3232999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.9125000000000001</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.58919999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="2">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0.2397</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
+      <c r="D29" s="1">
+        <v>1.3211999999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-1.9159999999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.59489999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="2">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.3232999999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1.9125000000000001</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.58919999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="2">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.3294999999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-1.9018999999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.57240000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="2">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.3392999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1.8846000000000001</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.54520000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="2">
+        <v>0.1363</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.3521000000000001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-1.8608</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.50870000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.3669</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1.8310999999999999</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.46429999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>0.1827</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.3829</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1.7963</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.41339999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>0.1978</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.3992</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1.7571000000000001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.3579</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="D37" s="1">
         <v>1.4152</v>
       </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21">
+      <c r="E37" s="1">
+        <v>-1.7145999999999999</v>
+      </c>
+      <c r="F37" s="1">
         <v>0.2994</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>1.3992</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>0.3579</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>1.3829</v>
-      </c>
-      <c r="E23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23">
-        <v>0.41339999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>1.3669</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24">
-        <v>0.46429999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>1.3521000000000001</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25">
-        <v>0.50870000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>1.3392999999999999</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26">
-        <v>0.54520000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27">
-        <v>1.3294999999999999</v>
-      </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <v>0.57240000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
-        <v>1.3232999999999999</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28">
-        <v>0.58919999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>1.3211999999999999</v>
-      </c>
-      <c r="E29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>0.59489999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D30">
-        <v>1.3232999999999999</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30">
-        <v>0.58919999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="1">
-        <v>7.2800000000000004E-2</v>
-      </c>
-      <c r="D31">
-        <v>1.3294999999999999</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <v>0.57240000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
-        <v>0.10630000000000001</v>
-      </c>
-      <c r="D32">
-        <v>1.3392999999999999</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32">
-        <v>0.54520000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="1">
-        <v>0.1363</v>
-      </c>
-      <c r="D33">
-        <v>1.3521000000000001</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33">
-        <v>0.50870000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C34" s="1">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="D34">
-        <v>1.3669</v>
-      </c>
-      <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34">
-        <v>0.46429999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="1">
-        <v>0.1827</v>
-      </c>
-      <c r="D35">
-        <v>1.3829</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35">
-        <v>0.41339999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C36" s="1">
-        <v>0.1978</v>
-      </c>
-      <c r="D36">
-        <v>1.3992</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>0.3579</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
-        <v>0.20710000000000001</v>
-      </c>
-      <c r="D37">
-        <v>1.4152</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37">
-        <v>0.2994</v>
-      </c>
-    </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>0.2102</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>1.4301999999999999</v>
       </c>
-      <c r="E38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="1">
+        <v>-1.6698999999999999</v>
+      </c>
+      <c r="F38" s="1">
         <v>0.2397</v>
       </c>
     </row>
